--- a/biology/Botanique/Conophthorus/Conophthorus.xlsx
+++ b/biology/Botanique/Conophthorus/Conophthorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conophthorus est un genre d'insectes de l'ordre des coléoptères [1] et de la famille des Curculionidae
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conophthorus est un genre d'insectes de l'ordre des coléoptères  et de la famille des Curculionidae
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (1 septembre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (1 septembre 2014) :
 Conophthorus apachecae Hopkins, 1915
 Conophthorus banksianae McPherson, 1970
 Conophthorus cembroides Wood, 1971
@@ -539,7 +553,7 @@
 Conophthorus teocotum
 Conophthorus terminalis
 Conophthorus virginianae
-Selon ITIS      (1 septembre 2014)[3] :
+Selon ITIS      (1 septembre 2014) :
 Conophthorus apachecae Hopkins, 1915
 Conophthorus banksianae McPherson, 1970
 Conophthorus cembroides Wood, 1971
@@ -550,7 +564,7 @@
 Conophthorus ponderosae Hopkins, 1915
 Conophthorus radiatae Hopkins, 1915
 Conophthorus resinosae Hopkins, 1915
-Selon NCBI  (1 septembre 2014)[4] :
+Selon NCBI  (1 septembre 2014) :
 Conophthorus apachecae
 Conophthorus conicolens
 Conophthorus coniperda
